--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cfh-Sell.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cfh-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.476664355904551</v>
+        <v>0.6718046666666666</v>
       </c>
       <c r="H2">
-        <v>0.476664355904551</v>
+        <v>2.015414</v>
       </c>
       <c r="I2">
-        <v>0.004535417322191429</v>
+        <v>0.006062562609515538</v>
       </c>
       <c r="J2">
-        <v>0.004535417322191429</v>
+        <v>0.006345114347523019</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0653411950566061</v>
+        <v>0.146719</v>
       </c>
       <c r="N2">
-        <v>0.0653411950566061</v>
+        <v>0.440157</v>
       </c>
       <c r="O2">
-        <v>0.0128488690045244</v>
+        <v>0.002213357657235064</v>
       </c>
       <c r="P2">
-        <v>0.0128488690045244</v>
+        <v>0.002213357657235064</v>
       </c>
       <c r="Q2">
-        <v>0.03114581865569078</v>
+        <v>0.09856650888866667</v>
       </c>
       <c r="R2">
-        <v>0.03114581865569078</v>
+        <v>0.887098579998</v>
       </c>
       <c r="S2">
-        <v>5.82749830536885E-05</v>
+        <v>1.341861937423821E-05</v>
       </c>
       <c r="T2">
-        <v>5.82749830536885E-05</v>
+        <v>1.404400742712214E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,57 +596,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.476664355904551</v>
+        <v>0.6718046666666666</v>
       </c>
       <c r="H3">
-        <v>0.476664355904551</v>
+        <v>2.015414</v>
       </c>
       <c r="I3">
-        <v>0.004535417322191429</v>
+        <v>0.006062562609515538</v>
       </c>
       <c r="J3">
-        <v>0.004535417322191429</v>
+        <v>0.006345114347523019</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.02002429770372</v>
+        <v>28.93198366666667</v>
       </c>
       <c r="N3">
-        <v>5.02002429770372</v>
+        <v>86.795951</v>
       </c>
       <c r="O3">
-        <v>0.9871511309954755</v>
+        <v>0.4364589970461662</v>
       </c>
       <c r="P3">
-        <v>0.9871511309954755</v>
+        <v>0.4364589970461662</v>
       </c>
       <c r="Q3">
-        <v>2.39286664849014</v>
+        <v>19.43664164319044</v>
       </c>
       <c r="R3">
-        <v>2.39286664849014</v>
+        <v>174.929774788714</v>
       </c>
       <c r="S3">
-        <v>0.00447714233913774</v>
+        <v>0.00264605999607874</v>
       </c>
       <c r="T3">
-        <v>0.00447714233913774</v>
+        <v>0.002769382244263136</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.107356900176</v>
+        <v>0.6718046666666666</v>
       </c>
       <c r="H4">
-        <v>41.107356900176</v>
+        <v>2.015414</v>
       </c>
       <c r="I4">
-        <v>0.3911327042710465</v>
+        <v>0.006062562609515538</v>
       </c>
       <c r="J4">
-        <v>0.3911327042710465</v>
+        <v>0.006345114347523019</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.0653411950566061</v>
+        <v>37.20927366666667</v>
       </c>
       <c r="N4">
-        <v>0.0653411950566061</v>
+        <v>111.627821</v>
       </c>
       <c r="O4">
-        <v>0.0128488690045244</v>
+        <v>0.5613276452965987</v>
       </c>
       <c r="P4">
-        <v>0.0128488690045244</v>
+        <v>0.5613276452965988</v>
       </c>
       <c r="Q4">
-        <v>2.686003825475923</v>
+        <v>24.99736369254378</v>
       </c>
       <c r="R4">
-        <v>2.686003825475923</v>
+        <v>224.976273232894</v>
       </c>
       <c r="S4">
-        <v>0.005025612880564057</v>
+        <v>0.00340308399406256</v>
       </c>
       <c r="T4">
-        <v>0.005025612880564057</v>
+        <v>0.003561688095832761</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>41.107356900176</v>
+        <v>43.16235166666667</v>
       </c>
       <c r="H5">
-        <v>41.107356900176</v>
+        <v>129.487055</v>
       </c>
       <c r="I5">
-        <v>0.3911327042710465</v>
+        <v>0.3895097374828606</v>
       </c>
       <c r="J5">
-        <v>0.3911327042710465</v>
+        <v>0.4076632247761514</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.02002429770372</v>
+        <v>0.146719</v>
       </c>
       <c r="N5">
-        <v>5.02002429770372</v>
+        <v>0.440157</v>
       </c>
       <c r="O5">
-        <v>0.9871511309954755</v>
+        <v>0.002213357657235064</v>
       </c>
       <c r="P5">
-        <v>0.9871511309954755</v>
+        <v>0.002213357657235064</v>
       </c>
       <c r="Q5">
-        <v>206.3599304532622</v>
+        <v>6.332737074181667</v>
       </c>
       <c r="R5">
-        <v>206.3599304532622</v>
+        <v>56.994633667635</v>
       </c>
       <c r="S5">
-        <v>0.3861070913904823</v>
+        <v>0.0008621243600253091</v>
       </c>
       <c r="T5">
-        <v>0.3861070913904823</v>
+        <v>0.0009023045201314335</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.1392092338536</v>
+        <v>43.16235166666667</v>
       </c>
       <c r="H6">
-        <v>20.1392092338536</v>
+        <v>129.487055</v>
       </c>
       <c r="I6">
-        <v>0.1916227158230128</v>
+        <v>0.3895097374828606</v>
       </c>
       <c r="J6">
-        <v>0.1916227158230128</v>
+        <v>0.4076632247761514</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0653411950566061</v>
+        <v>28.93198366666667</v>
       </c>
       <c r="N6">
-        <v>0.0653411950566061</v>
+        <v>86.795951</v>
       </c>
       <c r="O6">
-        <v>0.0128488690045244</v>
+        <v>0.4364589970461662</v>
       </c>
       <c r="P6">
-        <v>0.0128488690045244</v>
+        <v>0.4364589970461662</v>
       </c>
       <c r="Q6">
-        <v>1.315919998835031</v>
+        <v>1248.772453434923</v>
       </c>
       <c r="R6">
-        <v>1.315919998835031</v>
+        <v>11238.95208091431</v>
       </c>
       <c r="S6">
-        <v>0.002462135173901096</v>
+        <v>0.1700050293614848</v>
       </c>
       <c r="T6">
-        <v>0.002462135173901096</v>
+        <v>0.1779282822184048</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.1392092338536</v>
+        <v>43.16235166666667</v>
       </c>
       <c r="H7">
-        <v>20.1392092338536</v>
+        <v>129.487055</v>
       </c>
       <c r="I7">
-        <v>0.1916227158230128</v>
+        <v>0.3895097374828606</v>
       </c>
       <c r="J7">
-        <v>0.1916227158230128</v>
+        <v>0.4076632247761514</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>5.02002429770372</v>
+        <v>37.20927366666667</v>
       </c>
       <c r="N7">
-        <v>5.02002429770372</v>
+        <v>111.627821</v>
       </c>
       <c r="O7">
-        <v>0.9871511309954755</v>
+        <v>0.5613276452965987</v>
       </c>
       <c r="P7">
-        <v>0.9871511309954755</v>
+        <v>0.5613276452965988</v>
       </c>
       <c r="Q7">
-        <v>101.0993196904842</v>
+        <v>1606.039755261906</v>
       </c>
       <c r="R7">
-        <v>101.0993196904842</v>
+        <v>14454.35779735715</v>
       </c>
       <c r="S7">
-        <v>0.1891605806491116</v>
+        <v>0.2186425837613505</v>
       </c>
       <c r="T7">
-        <v>0.1891605806491116</v>
+        <v>0.2288326380376151</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.0945157919544</v>
+        <v>21.686232</v>
       </c>
       <c r="H8">
-        <v>30.0945157919544</v>
+        <v>65.058696</v>
       </c>
       <c r="I8">
-        <v>0.2863465382612435</v>
+        <v>0.1957029264426257</v>
       </c>
       <c r="J8">
-        <v>0.2863465382612435</v>
+        <v>0.2048238552578966</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0653411950566061</v>
+        <v>0.146719</v>
       </c>
       <c r="N8">
-        <v>0.0653411950566061</v>
+        <v>0.440157</v>
       </c>
       <c r="O8">
-        <v>0.0128488690045244</v>
+        <v>0.002213357657235064</v>
       </c>
       <c r="P8">
-        <v>0.0128488690045244</v>
+        <v>0.002213357657235064</v>
       </c>
       <c r="Q8">
-        <v>1.966411626496205</v>
+        <v>3.181782272808</v>
       </c>
       <c r="R8">
-        <v>1.966411626496205</v>
+        <v>28.636040455272</v>
       </c>
       <c r="S8">
-        <v>0.003679229160017752</v>
+        <v>0.0004331605707850961</v>
       </c>
       <c r="T8">
-        <v>0.003679229160017752</v>
+        <v>0.0004533484484194719</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.0945157919544</v>
+        <v>21.686232</v>
       </c>
       <c r="H9">
-        <v>30.0945157919544</v>
+        <v>65.058696</v>
       </c>
       <c r="I9">
-        <v>0.2863465382612435</v>
+        <v>0.1957029264426257</v>
       </c>
       <c r="J9">
-        <v>0.2863465382612435</v>
+        <v>0.2048238552578966</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.02002429770372</v>
+        <v>28.93198366666667</v>
       </c>
       <c r="N9">
-        <v>5.02002429770372</v>
+        <v>86.795951</v>
       </c>
       <c r="O9">
-        <v>0.9871511309954755</v>
+        <v>0.4364589970461662</v>
       </c>
       <c r="P9">
-        <v>0.9871511309954755</v>
+        <v>0.4364589970461662</v>
       </c>
       <c r="Q9">
-        <v>151.0752005032394</v>
+        <v>627.425710015544</v>
       </c>
       <c r="R9">
-        <v>151.0752005032394</v>
+        <v>5646.831390139896</v>
       </c>
       <c r="S9">
-        <v>0.2826673091012257</v>
+        <v>0.08541630299414807</v>
       </c>
       <c r="T9">
-        <v>0.2826673091012257</v>
+        <v>0.08939721443699067</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.2804887961209</v>
+        <v>21.686232</v>
       </c>
       <c r="H10">
-        <v>13.2804887961209</v>
+        <v>65.058696</v>
       </c>
       <c r="I10">
-        <v>0.1263626243225057</v>
+        <v>0.1957029264426257</v>
       </c>
       <c r="J10">
-        <v>0.1263626243225057</v>
+        <v>0.2048238552578966</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.0653411950566061</v>
+        <v>37.20927366666667</v>
       </c>
       <c r="N10">
-        <v>0.0653411950566061</v>
+        <v>111.627821</v>
       </c>
       <c r="O10">
-        <v>0.0128488690045244</v>
+        <v>0.5613276452965987</v>
       </c>
       <c r="P10">
-        <v>0.0128488690045244</v>
+        <v>0.5613276452965988</v>
       </c>
       <c r="Q10">
-        <v>0.8677630088744077</v>
+        <v>806.9289412868241</v>
       </c>
       <c r="R10">
-        <v>0.8677630088744077</v>
+        <v>7262.360471581415</v>
       </c>
       <c r="S10">
-        <v>0.001623616806987804</v>
+        <v>0.1098534628776926</v>
       </c>
       <c r="T10">
-        <v>0.001623616806987804</v>
+        <v>0.1149732923724865</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>30.48803466666666</v>
+      </c>
+      <c r="H11">
+        <v>91.46410399999999</v>
+      </c>
+      <c r="I11">
+        <v>0.2751329786452017</v>
+      </c>
+      <c r="J11">
+        <v>0.2879558237532028</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.146719</v>
+      </c>
+      <c r="N11">
+        <v>0.440157</v>
+      </c>
+      <c r="O11">
+        <v>0.002213357657235064</v>
+      </c>
+      <c r="P11">
+        <v>0.002213357657235064</v>
+      </c>
+      <c r="Q11">
+        <v>4.473173958258667</v>
+      </c>
+      <c r="R11">
+        <v>40.258565624328</v>
+      </c>
+      <c r="S11">
+        <v>0.0006089676850422485</v>
+      </c>
+      <c r="T11">
+        <v>0.0006373492274495819</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>13.2804887961209</v>
-      </c>
-      <c r="H11">
-        <v>13.2804887961209</v>
-      </c>
-      <c r="I11">
-        <v>0.1263626243225057</v>
-      </c>
-      <c r="J11">
-        <v>0.1263626243225057</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>5.02002429770372</v>
-      </c>
-      <c r="N11">
-        <v>5.02002429770372</v>
-      </c>
-      <c r="O11">
-        <v>0.9871511309954755</v>
-      </c>
-      <c r="P11">
-        <v>0.9871511309954755</v>
-      </c>
-      <c r="Q11">
-        <v>66.66837644190895</v>
-      </c>
-      <c r="R11">
-        <v>66.66837644190895</v>
-      </c>
-      <c r="S11">
-        <v>0.1247390075155179</v>
-      </c>
-      <c r="T11">
-        <v>0.1247390075155179</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>30.48803466666666</v>
+      </c>
+      <c r="H12">
+        <v>91.46410399999999</v>
+      </c>
+      <c r="I12">
+        <v>0.2751329786452017</v>
+      </c>
+      <c r="J12">
+        <v>0.2879558237532028</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>28.93198366666667</v>
+      </c>
+      <c r="N12">
+        <v>86.795951</v>
+      </c>
+      <c r="O12">
+        <v>0.4364589970461662</v>
+      </c>
+      <c r="P12">
+        <v>0.4364589970461662</v>
+      </c>
+      <c r="Q12">
+        <v>882.0793210047671</v>
+      </c>
+      <c r="R12">
+        <v>7938.713889042903</v>
+      </c>
+      <c r="S12">
+        <v>0.120084263913809</v>
+      </c>
+      <c r="T12">
+        <v>0.1256809100289255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>30.48803466666666</v>
+      </c>
+      <c r="H13">
+        <v>91.46410399999999</v>
+      </c>
+      <c r="I13">
+        <v>0.2751329786452017</v>
+      </c>
+      <c r="J13">
+        <v>0.2879558237532028</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>37.20927366666667</v>
+      </c>
+      <c r="N13">
+        <v>111.627821</v>
+      </c>
+      <c r="O13">
+        <v>0.5613276452965987</v>
+      </c>
+      <c r="P13">
+        <v>0.5613276452965988</v>
+      </c>
+      <c r="Q13">
+        <v>1134.43762547082</v>
+      </c>
+      <c r="R13">
+        <v>10209.93862923738</v>
+      </c>
+      <c r="S13">
+        <v>0.1544397470463504</v>
+      </c>
+      <c r="T13">
+        <v>0.1616375644968278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>14.8035735</v>
+      </c>
+      <c r="H14">
+        <v>29.607147</v>
+      </c>
+      <c r="I14">
+        <v>0.1335917948197964</v>
+      </c>
+      <c r="J14">
+        <v>0.09321198186522625</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.146719</v>
+      </c>
+      <c r="N14">
+        <v>0.440157</v>
+      </c>
+      <c r="O14">
+        <v>0.002213357657235064</v>
+      </c>
+      <c r="P14">
+        <v>0.002213357657235064</v>
+      </c>
+      <c r="Q14">
+        <v>2.1719655003465</v>
+      </c>
+      <c r="R14">
+        <v>13.031793002079</v>
+      </c>
+      <c r="S14">
+        <v>0.000295686422008172</v>
+      </c>
+      <c r="T14">
+        <v>0.0002063114538074544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>14.8035735</v>
+      </c>
+      <c r="H15">
+        <v>29.607147</v>
+      </c>
+      <c r="I15">
+        <v>0.1335917948197964</v>
+      </c>
+      <c r="J15">
+        <v>0.09321198186522625</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>28.93198366666667</v>
+      </c>
+      <c r="N15">
+        <v>86.795951</v>
+      </c>
+      <c r="O15">
+        <v>0.4364589970461662</v>
+      </c>
+      <c r="P15">
+        <v>0.4364589970461662</v>
+      </c>
+      <c r="Q15">
+        <v>428.2967467102995</v>
+      </c>
+      <c r="R15">
+        <v>2569.780480261797</v>
+      </c>
+      <c r="S15">
+        <v>0.05830734078064558</v>
+      </c>
+      <c r="T15">
+        <v>0.04068320811758208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>14.8035735</v>
+      </c>
+      <c r="H16">
+        <v>29.607147</v>
+      </c>
+      <c r="I16">
+        <v>0.1335917948197964</v>
+      </c>
+      <c r="J16">
+        <v>0.09321198186522625</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>37.20927366666667</v>
+      </c>
+      <c r="N16">
+        <v>111.627821</v>
+      </c>
+      <c r="O16">
+        <v>0.5613276452965987</v>
+      </c>
+      <c r="P16">
+        <v>0.5613276452965988</v>
+      </c>
+      <c r="Q16">
+        <v>550.8302176061145</v>
+      </c>
+      <c r="R16">
+        <v>3304.981305636687</v>
+      </c>
+      <c r="S16">
+        <v>0.0749887676171427</v>
+      </c>
+      <c r="T16">
+        <v>0.05232246229383673</v>
       </c>
     </row>
   </sheetData>
